--- a/Parameters function/Rat physiological parameters.xlsx
+++ b/Parameters function/Rat physiological parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vassi\Documents\Diploma Thesis\Parameters Function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4DC829-2CB8-41DB-8C08-E876918D517D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965440AC-CCD9-4D8D-AAEB-1074EDBE8C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21396" yWindow="2268" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>RoB</t>
   </si>
@@ -79,6 +73,9 @@
   </si>
   <si>
     <t>Macrophage fractions (fraction of tissue volume)</t>
+  </si>
+  <si>
+    <t>Muscles</t>
   </si>
 </sst>
 </file>
@@ -399,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +519,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>2.1</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1">
         <v>0.36</v>
@@ -542,7 +539,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>0.21</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E8" s="1">
         <v>0.1</v>
@@ -613,6 +610,23 @@
         <v>0.02</v>
       </c>
       <c r="E12" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.43E-2</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.02</v>
       </c>
     </row>
